--- a/config/amulet.xlsx
+++ b/config/amulet.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbzmsc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FE33608-3959-4F51-B153-E91738DA0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489D4E2C-B9F8-494C-A7ED-0B96CC58C9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence" sheetId="2" r:id="rId1"/>
     <sheet name="Imaging Manual" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,282 +37,294 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="96">
+  <si>
+    <t>AMULET Series Name contains:</t>
+  </si>
   <si>
     <t>Vendors</t>
   </si>
   <si>
+    <t>short name</t>
+  </si>
+  <si>
+    <t>T2W_core</t>
+  </si>
+  <si>
     <t>Philips, Siemens</t>
   </si>
   <si>
+    <t>t2w</t>
+  </si>
+  <si>
+    <t>T2W_FS_core</t>
+  </si>
+  <si>
+    <t>t2w_fatsat</t>
+  </si>
+  <si>
+    <t>T1_dualecho_core,T1w_dualecho_core</t>
+  </si>
+  <si>
+    <t>t1w_dualecho</t>
+  </si>
+  <si>
+    <t>T1_FS_core,T1w_FS_core</t>
+  </si>
+  <si>
+    <t>t1w_fatsat</t>
+  </si>
+  <si>
+    <t>DWI_core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWI </t>
+  </si>
+  <si>
+    <t>DWI_core_ADC</t>
+  </si>
+  <si>
+    <t>Siemens</t>
+  </si>
+  <si>
+    <t>DWI-ADC</t>
+  </si>
+  <si>
+    <t>AMULET Series Name</t>
+  </si>
+  <si>
+    <t>Software Version</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>DICOM Tag</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Operator</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Expected Value</t>
+  </si>
+  <si>
+    <t>Read Value</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>(0010,0030)</t>
+  </si>
+  <si>
+    <t>Patient Birth Date</t>
+  </si>
+  <si>
+    <t>contain</t>
+  </si>
+  <si>
+    <t>[0101]</t>
+  </si>
+  <si>
+    <t>(0010,0010)</t>
+  </si>
+  <si>
+    <t>Patient Name</t>
+  </si>
+  <si>
+    <t>[AM0]</t>
+  </si>
+  <si>
+    <t>(0010,0020)</t>
+  </si>
+  <si>
+    <t>Patient ID</t>
+  </si>
+  <si>
+    <t>t2w, t2w_fatsat</t>
+  </si>
+  <si>
+    <t>(0018, 1310)</t>
+  </si>
+  <si>
+    <t>Acquisition Matrix</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>[310, 330]</t>
+  </si>
+  <si>
+    <t>(0018, 0050)</t>
+  </si>
+  <si>
+    <t>Slice thickness</t>
+  </si>
+  <si>
+    <t>[4, 6]</t>
+  </si>
+  <si>
+    <t>(0018, 0088)</t>
+  </si>
+  <si>
+    <t>Spacing between slices</t>
+  </si>
+  <si>
+    <t>[4.8, 7.2]</t>
+  </si>
+  <si>
+    <t>(0028, 0030)</t>
+  </si>
+  <si>
+    <t>Pixel spacing</t>
+  </si>
+  <si>
+    <t>[0.8, 1.2]</t>
+  </si>
+  <si>
+    <t>(0018, 0081)</t>
+  </si>
+  <si>
+    <t>Echo time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[120, 180] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[60, 100] </t>
+  </si>
+  <si>
+    <t>(0018,0022)</t>
+  </si>
+  <si>
+    <t>Scan Options</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>PFP\SAT2</t>
+  </si>
+  <si>
+    <t>PFP\SAT2\SFS</t>
+  </si>
+  <si>
+    <t>[256, 320]</t>
+  </si>
+  <si>
+    <t>[0.5, 1.3]</t>
+  </si>
+  <si>
+    <t>(0018, 0023)MR Acquisition Type == 2D</t>
+  </si>
+  <si>
+    <t>[5, 6]</t>
+  </si>
+  <si>
+    <t>[5, 7]</t>
+  </si>
+  <si>
+    <t>(0018, 1314)</t>
+  </si>
+  <si>
+    <t>Flip angle</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>(0018, 0023)MR Acquisition Type == 3D</t>
+  </si>
+  <si>
+    <t>[9, 10]</t>
+  </si>
+  <si>
+    <t>(0018, 0087)Magnetic Field Strength == 3</t>
+  </si>
+  <si>
+    <t>[1.23, 1.33]</t>
+  </si>
+  <si>
+    <t>[2.46, 2.63]</t>
+  </si>
+  <si>
+    <t>(0018, 0087)Magnetic Field Strength == 1.5</t>
+  </si>
+  <si>
+    <t>[2.3, 2.4]</t>
+  </si>
+  <si>
+    <t>[4.76, 4.87]</t>
+  </si>
+  <si>
+    <t>SAT2</t>
+  </si>
+  <si>
+    <t>[288, 320]</t>
+  </si>
+  <si>
+    <t>[1.2, 1.3]</t>
+  </si>
+  <si>
+    <t>[10, 15]</t>
+  </si>
+  <si>
+    <t>[1.0, 2.4]</t>
+  </si>
+  <si>
+    <t>SAT2\SFS</t>
+  </si>
+  <si>
+    <t>(0018,0023)</t>
+  </si>
+  <si>
+    <t>MR Acquisition Type</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
     <t>DWI</t>
   </si>
   <si>
-    <t>Siemens</t>
-  </si>
-  <si>
-    <t>Software Version</t>
-  </si>
-  <si>
-    <t>DICOM Tag</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>Expected Value</t>
-  </si>
-  <si>
-    <t>Read Value</t>
-  </si>
-  <si>
-    <t>(0018, 1310)</t>
-  </si>
-  <si>
-    <t>Acquisition Matrix</t>
-  </si>
-  <si>
-    <t>==</t>
-  </si>
-  <si>
-    <t>(0018, 0050)</t>
-  </si>
-  <si>
-    <t>Slice thickness</t>
-  </si>
-  <si>
-    <t>(0018, 0088)</t>
-  </si>
-  <si>
-    <t>Spacing between slices</t>
-  </si>
-  <si>
-    <t>(0028, 0030)</t>
-  </si>
-  <si>
-    <t>Pixel spacing</t>
-  </si>
-  <si>
-    <t>(0018, 0081)</t>
-  </si>
-  <si>
-    <t>Echo time</t>
-  </si>
-  <si>
-    <t>contain</t>
-  </si>
-  <si>
-    <t>(0018, 1314)</t>
-  </si>
-  <si>
-    <t>Flip angle</t>
-  </si>
-  <si>
-    <t>range</t>
+    <t>[6, 7.2]</t>
+  </si>
+  <si>
+    <t>[1.4, 1.5]</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>[4, 6]</t>
-  </si>
-  <si>
-    <t>AMULET Series Name</t>
-  </si>
-  <si>
-    <t>T2W_core</t>
-  </si>
-  <si>
-    <t>T2W_FS_core</t>
-  </si>
-  <si>
-    <t>DWI_core</t>
-  </si>
-  <si>
-    <t>DWI_core_ADC</t>
-  </si>
-  <si>
-    <t>AMULET Series Name contains:</t>
-  </si>
-  <si>
-    <t>DWI-ADC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DWI </t>
-  </si>
-  <si>
-    <t>t2w</t>
-  </si>
-  <si>
-    <t>t2w_fatsat</t>
-  </si>
-  <si>
-    <t>t1w_dualecho</t>
-  </si>
-  <si>
-    <t>t1w_fatsat</t>
-  </si>
-  <si>
-    <t>short name</t>
-  </si>
-  <si>
-    <t>t2w, t2w_fatsat</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>(0010,0010)</t>
-  </si>
-  <si>
-    <t>Patient Name</t>
-  </si>
-  <si>
-    <t>(0010,0030)</t>
-  </si>
-  <si>
-    <t>Patient Birth Date</t>
-  </si>
-  <si>
-    <t>[0101]</t>
-  </si>
-  <si>
-    <t>[4.8, 7.2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[60, 100] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[120, 180] </t>
-  </si>
-  <si>
-    <t>[AM0]</t>
-  </si>
-  <si>
-    <t>Patient ID</t>
-  </si>
-  <si>
-    <t>(0010,0020)</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>(0018, 0023)MR Acquisition Type == 2D</t>
-  </si>
-  <si>
-    <t>(0018,0022)</t>
-  </si>
-  <si>
-    <t>PFP\SAT2\SFS</t>
-  </si>
-  <si>
-    <t>PFP\SAT2</t>
-  </si>
-  <si>
-    <t>[0.8, 1.2]</t>
-  </si>
-  <si>
-    <t>[5, 6]</t>
-  </si>
-  <si>
-    <t>[9, 10]</t>
-  </si>
-  <si>
-    <t>[256, 320]</t>
-  </si>
-  <si>
-    <t>[5, 7]</t>
-  </si>
-  <si>
-    <t>(0018, 0023)MR Acquisition Type == 3D</t>
-  </si>
-  <si>
-    <t>t1w_dualecho_core_in</t>
-  </si>
-  <si>
-    <t>t1w_dualecho_core_out</t>
-  </si>
-  <si>
-    <t>[1.23, 1.33]</t>
-  </si>
-  <si>
-    <t>[2.46, 2.63]</t>
-  </si>
-  <si>
-    <t>[2.3, 2.4]</t>
-  </si>
-  <si>
-    <t>[4.76, 4.87]</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>[310, 330]</t>
-  </si>
-  <si>
-    <t>[0.5, 1.3]</t>
-  </si>
-  <si>
-    <t>[288, 320]</t>
-  </si>
-  <si>
-    <t>[1.2, 1.3]</t>
-  </si>
-  <si>
-    <t>[10, 15]</t>
-  </si>
-  <si>
-    <t>[1.0, 2.4]</t>
-  </si>
-  <si>
-    <t>SAT2\SFS</t>
-  </si>
-  <si>
-    <t>(0018, 0087)Magnetic Field Strength == 3</t>
-  </si>
-  <si>
-    <t>(0018, 0087)Magnetic Field Strength == 1.5</t>
-  </si>
-  <si>
-    <t>(0018,0023)</t>
-  </si>
-  <si>
-    <t>MR Acquisition Type</t>
-  </si>
-  <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>[1.4, 1.5]</t>
-  </si>
-  <si>
-    <t>Scan Options</t>
+    <t>[39, 65]</t>
   </si>
   <si>
     <t>FS</t>
   </si>
   <si>
-    <t>SAT2</t>
-  </si>
-  <si>
-    <t>[39, 52]</t>
-  </si>
-  <si>
-    <t>[6, 7.2]</t>
-  </si>
-  <si>
-    <t>T1_dualecho_core,T1w_dualecho_core</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>T1_FS_core,T1w_FS_core</t>
+    <t>T1_dualecho_core_opp,T1w_dualecho_core_opp</t>
+  </si>
+  <si>
+    <t>t1w_dualecho_opp</t>
+  </si>
+  <si>
+    <t>t1w_dualecho_in</t>
+  </si>
+  <si>
+    <t>t1w_dualecho,t1w_dualecho_opp,t1w_dualecho_in</t>
+  </si>
+  <si>
+    <t>T1_dualecho_core_in,T1w_dualecho_core_in</t>
   </si>
 </sst>
 </file>
@@ -695,101 +707,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -799,125 +833,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="5" customWidth="1"/>
+    <col min="1" max="1" width="53.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="10" style="9" customWidth="1"/>
+    <col min="9" max="9" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -929,32 +967,33 @@
       <c r="E5" s="7"/>
       <c r="F5" s="5"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="J6" s="5">
         <v>320</v>
@@ -962,44 +1001,44 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>47</v>
@@ -1008,137 +1047,132 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="5"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="5"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="E14" s="7"/>
-      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J15" s="5">
         <v>320</v>
@@ -1146,582 +1180,564 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I18" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I20" s="5">
         <v>3</v>
       </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J22" s="5">
         <v>1.23</v>
       </c>
-      <c r="K22" s="11"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J23" s="5">
         <v>2.46</v>
       </c>
-      <c r="K23" s="11"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="J24" s="5">
         <v>2.38</v>
       </c>
-      <c r="K24" s="11"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J25" s="5">
         <v>4.76</v>
       </c>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="11"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="D27" s="9"/>
       <c r="E27" s="7"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="11"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
       <c r="G28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J28" s="5">
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I29" s="5">
         <v>3</v>
       </c>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="11"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="E35" s="7"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I36" s="5">
         <v>134</v>
       </c>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J37" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J38" s="5">
         <v>7.2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -1729,20 +1745,20 @@
         <v>55</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
     </row>
   </sheetData>
@@ -1753,18 +1769,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="deb9c0fb-479d-406e-be78-98daae617721"/>
+    <TaxCatchAll xmlns="deb9c0fb-479d-406e-be78-98daae617721" xsi:nil="true"/>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c82b1a66-7bf8-40be-bbbf-489379ae9ee5">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
@@ -1772,9 +1779,9 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A734F1935CD40C45A40BAD138C77CA77" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d7702ee087e09f711cb4fc9d98317650">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c82b1a66-7bf8-40be-bbbf-489379ae9ee5" xmlns:ns3="deb9c0fb-479d-406e-be78-98daae617721" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19edd99fb1140084e623d5cdebc7f8e1" ns2:_="" ns3:_="">
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A734F1935CD40C45A40BAD138C77CA77" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fedbb86c7de2f314c13aab760d896c57">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c82b1a66-7bf8-40be-bbbf-489379ae9ee5" xmlns:ns3="deb9c0fb-479d-406e-be78-98daae617721" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="88107f8bb881a6ef146e54a85c6f9e10" ns2:_="" ns3:_="">
     <xsd:import namespace="c82b1a66-7bf8-40be-bbbf-489379ae9ee5"/>
     <xsd:import namespace="deb9c0fb-479d-406e-be78-98daae617721"/>
     <xsd:element name="properties">
@@ -1973,33 +1980,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FE73DB8-1736-4671-8FD3-622DFFD73211}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D40F5F12-58EE-4BA1-8910-4436D8D8475A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="deb9c0fb-479d-406e-be78-98daae617721"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c82b1a66-7bf8-40be-bbbf-489379ae9ee5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D40F5F12-58EE-4BA1-8910-4436D8D8475A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="deb9c0fb-479d-406e-be78-98daae617721"/>
-    <ds:schemaRef ds:uri="c82b1a66-7bf8-40be-bbbf-489379ae9ee5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{625B10F8-EB4D-41E8-84E9-C8E9D0F0D801}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18B61126-C065-4438-90E9-9AF1258EA508}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2015,4 +2023,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FE73DB8-1736-4671-8FD3-622DFFD73211}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>